--- a/input/prompt_benchmark.xlsx
+++ b/input/prompt_benchmark.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.kou\OneDrive - BearingPoint GmbH\Documents\99_MGMT\2_Interne_AILABEL\webinar\streamlit\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2BBA3-4DCD-4DE3-9F0C-D89A985652F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="2257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="2349">
   <si>
     <t>description</t>
   </si>
@@ -9251,12 +9270,288 @@
     <t xml:space="preserve">
 "Inca Fashions Mission Cocoon Alpaca Pullover - Lightweight &amp; Cozy, Figure-Flattering Fit, Kangaroo Pockets, Hypoallergenic - Available in 5 Colors"</t>
   </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/412U37IE%2BgL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Db06UziGL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Db06UziGL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41JebbqVGNL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41BnywihjmL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/519LMHx7Y-L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41zf1nipeWL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41eKCwC3paL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41qaC85AilL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41QgI864XAL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41A883FP8dL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41kdiKlOz%2BL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/415HOkBtVjL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41WmiIrcVtL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41CxMsSjJQL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41KyUubPTfL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41R1mMg0uqL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41PDsDZq3nL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/410E21KGyAL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41WbC85wAtL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51vPOhCR7bL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51reMX3dwzL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41frJwdiV5L._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41ymNUqGKuL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41xjs2dFBVL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41vhf81OqpL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41SSKBPBSXL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41%2BopGxDspL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41MoMdo27TL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41PmT6JK%2B7L._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41di7yFOnEL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41pRhLNdaFL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41QAb641U9L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41oid4XaJDL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41QAb641U9L._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41VtrPVoSfL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51KlX549VIL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51CuNBIDblL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51muX-ej5HL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51mek73gcmL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41wIC%2BOsISL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Gg9sxeqBL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41gtlGnz0fL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51lPXuQRGWL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/517lIXXADqL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41LNBxtAAsL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41fQJW5k3PL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61SEOazOGyL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/411tDTLe0aL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51blGfnGeSL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51%2BAgG5tsaL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51cVsrfo4PL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51HVaC%2BE8eL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41aaAerC-lL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61Vp-GY5rFL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51yaR3x3wfL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51JDScQROvL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51VdrUIuI5L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51xZmmHnxdL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Ux4LDjomL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Mam5Jus8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41CpzEpzxML._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51ZFE1bcKtL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51waySXQ1KL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51aS1ekdunL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51xmOVnYFML._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31o1MIQ1JZL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31426M0izdL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31qGs7AAxvL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/319BiBmNk6L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/21OQrcT3fRL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31-ZffeEobL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31-ZffeEobL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41zNHZMSFQL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51NavxkzHyL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51tctwontuL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41yBKPYjL3L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41u6-L5txfL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51%2BvYB-ntML._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41lbQvp9y6L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31LfnlurPqL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31%2BQhdong1L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31M0hvRjyKL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31mtAmmaVXL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31VCMnESV8L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41lbQvp9y6L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31%2BQhdong1L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31M0hvRjyKL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31mtAmmaVXL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31VCMnESV8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31pLbxPM66L._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/410IshfnDXL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41drpZzAoqL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41gesxzUEzL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31%2BKnXC31UL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/410D%2B8iKmML._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41gesxzUEzL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/410IshfnDXL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41-1xh5q6yL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31RaRzt9wIL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41tY%2B1cbyUL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41zivmX9e-L._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51qjSx1E0sL._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51aRXyp61gL._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51msaxpbknL._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51qjSx1E0sL._SS36_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41RwR9uorHL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31D8BsWaFfL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31MpUA8mLjL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41sKSQSldhL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/418hRM1xksL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41eZsrwphpL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41f5fLi1HrL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41XNVlUL-HL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41lmEM4DlCL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41qdEHg-j3L._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41YO0tnpRaL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41YQczWXCwL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51fBQjg7hmL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51V2PzoPsEL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41T4vZQ2hqL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41HGOYIYGhL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41exPXQ3%2B3L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41zvi%2BIkFLL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41nMBvuPZSL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51LVwrfTJ2L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41l31Q3j5EL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51TrPHLES0L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/21x%2BZDyq1eL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51layqVzLqL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/11TW9YpBZnL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41txJiw-PuL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/414J3GrPOPL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51NaSSzb7jL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41SwGdzTJtL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/411uF7S8gJL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41UedELdLBL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/3119gse2GkL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41XDVmB-iYL._SS47_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31RpLlo2Q2L._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31CoVdns-FL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51FbGerITpL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41QGt%2BW6jyL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41NT83uZe-L._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41b9bDAbr-L._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41bUn5d5LPL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51%2Bz7fCz1OL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41KIFLJiPgL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51%2Bmvw3aEiL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41DUjMMBtaL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31RtANtCkbL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/3165XKl1-dL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51-rKsLRFSL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51s%2BNR6z2ML._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51VAwqsjMuL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51OVtpYBJPL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Vz2Xii-%2BL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/5145VN2p9aL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41g8IFoUyfL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/5141DBq4eKL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41F9Gvy-BNL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41g4JLpnZpL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41fVHSxJ%2B2L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41G2Az9sAEL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Uh9zUGDcL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ifSjMLj9L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41kBSE68qJL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/418ELmAEG2L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41QHANVH%2BGL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41F9Gvy-BNL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ngCVz57XL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/312LIFNf0EL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41TwxqpWmfL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41jZhwoomML._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41mFs1t1HgL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41i04DJVHJL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31sKsIL3-RL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41m72HWqzxL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/417y-3GvadL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41kURFzRA-L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41iQ-rvzdnL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41W0Mcnh6oL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/418PUhReEhL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41iGzMIGg0L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51%2BjejF26bL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41qM7fpqrKL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ZpbCVAYaL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51B5AeOXVkL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51XP5mk9qOL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41kaIgPA2rL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51UshsLG3TL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51oEdaXRdLL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51PR273OTIL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41PAV5HozwL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51dOs-EIYEL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41w3%2BN7bksL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41d05XhLPKL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41ZrC11EouL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41RaVm5ljzL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41UMegz9RiL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ZrC11EouL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41RaVm5ljzL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41UMegz9RiL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31yoCoDlKhL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31ITeYDf7hL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/310yLftm0%2BL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Mq2bfXlzL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31IaA8zw2WL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31MGdF16NJL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31drW6IvQzL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31p25G%2BUeoL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31PYct9maSL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41BVuBZqiaL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/418Ir7y1peL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/21xYZxzt9%2BL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31MdRtNnPLL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31HDUMIYt4L._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ggQ2fbBpL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51m2GAUKcOL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51QMXyOl-oL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51crENybK2L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51YBeRjlAbL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51%2BoU3nkhKL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41o2BxKsDHL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/511bDyF0F2L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51aiQUwEh8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51YBeRjlAbL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/21wTTY4cABL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31CoVdns-FL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51SWXV1iw1L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41CeirqdsUL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41JGTcxwa7L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41JEf5iYLUL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41gPZlBIjTL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41j4-izmwbL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41CeirqdsUL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41JzXE86InL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41mYABDqvpL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41XZvo8rptL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41yQMiC9XZL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41%2BVC9fs0UL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41JGTcxwa7L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41JEf5iYLUL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41gPZlBIjTL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31te8nfDGEL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/313f6IaEb6L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31ALnRDGQuL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31EYr7%2BfEvL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31fnk5bxrXL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31sxXk06X1L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31k73NHSQQL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31zkZB7OC8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41uA0sfUnTL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/413oBTWpV0L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/415rN4rOuDL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31rE8NBlAZL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31pBMMpV7PL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41j4-izmwbL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/61jujgZWD0L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51gfwcaWJ5L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51ZDhcG3XrL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51WJ8Jr3SVL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51%2BB3cmM%2BPL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/615vXNWt1ZL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41lAIOlsOmL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/418LqSKZPrL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ICy4hlvaL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41S93QNWYML._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31IvkhfBbQL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/514Ck5pJKkL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/311toi-BdrL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31CoVdns-FL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51JMQglrjoL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51tnnz3pLAL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41VA-fCjM8L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61uFTU8aMAL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41XtcQXR9uL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41XtcQXR9uL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/417OnrJj6AL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41zD1HsJX5L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41fMsPgU8WL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41dYwtJWuLL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41172qkpgSL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Xnh87TrQL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41O-NptoQNL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41rDBRusVwL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41JGNGSZ9lL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Spv5EvLGL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41hv3MOoZUL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41QFBCNXfrL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ZGPqKQJ4L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/411HEyZLK2L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41qEVXalC9L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/416AMafYZUL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41QFBCNXfrL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/416AMafYZUL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41%2B0Ox%2BwT0L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41qEVXalC9L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41zVyGXZBxL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41oJF0MIS8L._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41kSiPwX6kL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41AnYMctRfL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/511sTEoRjuL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51-uehTBjAL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51VEqJCOm7L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51IJG9n9jxL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Il7fmnIFL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51w7NjiC1dL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31oJXvaRYYL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31OeYgBVwfL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31yZ6JzCxyL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31oD8pKhEwL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31K9ymI3MsL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/316xpiZ1f1L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31DSDDREkaL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31I-eS0kuuL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31mg5fczEWL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31WoUezw%2BOL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41L2LMT0eDL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41VnEdpmOEL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41bfKnu2NLL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41Radd%2B-IyL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/416Zd%2BQLXNL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/4125Pai4S2L._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/413Ek792pQL._SS47_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41%2BQtbdCn6L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ks0PDJCgL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Xnh87TrQL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41O-NptoQNL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41rDBRusVwL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41twM7p9lYL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41JGNGSZ9lL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/411ZOxRP-9L._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31ovXB6Y87L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41JYj4vHxNL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41CegxgMV9L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ra9dz%2B6rL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41cPyvOCEqL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41OUTvjiuwL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31RINj3AVyL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41RXSdtrYKL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41uhkYhMI6L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/412pilVi1CL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41zf5C5GOBL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41jy7FjDNVL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51QvdyCCuSL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41qJg4K651L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51LKpg2VZhL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41pqxGGAMgL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41pqxGGAMgL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41pqxGGAMgL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41pqxGGAMgL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31L5by71S6L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41r-0RBEc8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31L5by71S6L._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41HjKuecgXL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51o2BJv1-xL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/511y1N8thYL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41xm9QNES2L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41eq92gfbML._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31biHRAcm8L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/311ZEwY5R6L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41rhkmh5SAL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41rhkmh5SAL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41%2BM085V3%2BL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41xm9QNES2L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41eq92gfbML._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31biHRAcm8L._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41kj8RVBZYL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/417fX%2BdnN%2BL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31SgG7R071L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31J4Y1qTxKL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41gpthFk7oL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41SMYcuk8TL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41nSXwM-%2BgL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/511dVV5JCwL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31YriwmU08L._SS47_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41vMFSOJczL._SS47_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41PbI6Tq3kL._SS47_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/3193YrMyBcL._SS47_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41h8-FV6uwL._SS47_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31dAHf19bYL._SS47_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31KYoOcKiIL._SS47_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31ZkUINS2sL._SS47_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/4172sy28vJL._SS47_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41t-7kJ0Y-L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51qYYTNJFyL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41SPVCA2U-L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51c6hlwehBL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51uhnhZuejL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31LcpESFPZL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31O49sKPq2L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31ZeCQt2uFL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/21fRzkqTivL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31NKnBYr-cL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/314nkFFpcsL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31D%2Bg2wDZNL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51HqoV3t2LL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51xNmxvhbJL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Sg%2B9hle6L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51a-TpYvEQL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/417uPqbMM6L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51x85fxJpTL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51gWq3Tb--L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51SJs-ng-1L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51HqoV3t2LL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51xNmxvhbJL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51a-TpYvEQL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51od%2B1zUqFL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Sg%2B9hle6L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ffXTPCq3L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51x85fxJpTL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51gWq3Tb--L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ffXTPCq3L._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/312mtbIf8WL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31uioYvmllL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31ivzlu7RJL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31Xw5n4dr6L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31rShTqS4nL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31CwZo0jvBL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31exyS0GfkL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31CoVdns-FL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41La-tamigL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Y66iQWqfL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41kUWULSjtL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41dsNbg7B7L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41jVzrIu50L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31TAqI2GLFL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/413oGF%2BWDML._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/417-PfCMImL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31tgI8ftqyL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41f%2BzDJCO7L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/413oGF%2BWDML._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/417-PfCMImL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41mwTEWBHXL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41PnWXQxc3L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41nbfplRjNL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/411I2OT84%2BL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/21rf3lK1RuL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31CoVdns-FL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/61Bca07cgGL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61uXxASXOuL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51cBNIui-7L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51CUo2Fa1HL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51-foz1g0rL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61Gl7MnfkAL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51oBJL9iMLL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51fIhbtaYZL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41DsC8CWf8L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41m4QsSM0CL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51lNGMJHAML._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/510wcyoSTgL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51JiIdeu52L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/515bGAqAVoL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/510FC3istiL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51g3En1fMTL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51J-iyZWQZL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51one8UI4XL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61urUh4g0KL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/516R%2Bv5KPJL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61LnLmlSe1L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61PvmwR6PYL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51GVVLSBklL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61qcaY7kOXL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51%2B1us0sCNL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41QtT7Q7wUL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51aHhN92jPL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61NvgvmogzL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/618HYkNfphL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51tM6CPytqL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61Ks99WzoxL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/710x4%2BMbHIL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51qlE5kC0bL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61DTNfrDfZL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/517MYv67ZdL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/616WJUrANzL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51AFM2JhK%2BL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Sti8CtUIL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61ezPilOFfL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51BQbVXEXhL._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41fQv7hmyRL._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41IDSMlVq0L._SS36_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/61vAZqqO4wL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/6100VX-bbHL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51nrcB7r2vL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51wLxj5CyDL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Fb1p35WvL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41UGIB22nJL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/314ZDyklmPL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51SInLCD7JL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61UGEKci7YL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51XW%2BApB0nL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41XzuJh-56L._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51kQluT29UL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41XVqwvqLfL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/4130zPZKXFL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41hPswR%2BotL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41OOkp2f-EL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Ba%2BakHxxL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/4130zPZKXFL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/11OyjutVkhL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41hPswR%2BotL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41RZgVmKIxL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Ba%2BakHxxL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41mk3OZorUL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41OOkp2f-EL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41%2BhzMa3AAL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31ta04sX7BL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31M5VrPMBvL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31rSm-TOcbL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31zpkLziXbL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31Qu8W9tZtL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/619aH%2BivRKL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/6100VX-bbHL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51nrcB7r2vL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51wLxj5CyDL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Fb1p35WvL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41KBsHXpxRL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51O2dcXaoUL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51UIOnyCpIL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51BjMNU5JeL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/519-AwFcBAL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61NkJOJsFxL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51pYmPD-7pL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51VrdR5YP1L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51ezb5owHLL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61ZGfLurjML._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51R-8raPpKL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51tsWEK1ACL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51zEDtN2KvL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61LW%2ByhMRdL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Ko1PjjbvL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51zyXKv7B7L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61zg5Bk1pFL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51fa6mjNOUL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51WpBxBXKjL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51cycZmjm6L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51AOmINpeiL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51p-8VTQtJL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41p7OjaKcOL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/510yYmr9BdL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51A6JmdGYdL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51ZuSciaw%2BL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Z6yjWcQ-L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51EFL6naOiL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61NuDLUjPHL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41B3kKaoI%2BL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61fA9ayP33L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61vCP%2Bu3deL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41-qI7xOzmL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/616p7X-N7RL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51MjRAyuOuL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51u2WeEi0lL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/614sT3ycHLL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/510NwVO3iyL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51llvg8pEeL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51yV9-N2tPL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41riXqxSxPL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51AHXQqTKfL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41WB-d4LkgL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51eIU0rE51L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51bsydqEQzL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51gLr4ckudL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41PoEV%2BoDbL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31oV1nfqRNL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/417VCe53ugL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/412cjgxRNqL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41MKBgTOu9L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/419sn9zYIPL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51qRbSaY16L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41OF6gj-tUL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/416ZXWG-nvL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41kxmZs-g6L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Xnh87TrQL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41rDBRusVwL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41twM7p9lYL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41JGNGSZ9lL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41Spv5EvLGL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/31VgyzpSKEL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51HVCm9hBJL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41pMSbMLNpL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51k5ggeaHCL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51FxFMaegtL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51SWXV1iw1L._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41VLJbG7lVL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41zcXWHLAsL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41x74tO7%2B5L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41VokW561rL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/410NDf3XN0L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31mwpWxcBqL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41a8cHmwasL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41c6hW7pslL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ICy4hlvaL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41qRMey0yiL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/51lZ2RfYQ0L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/61VwrjceEdL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/615ZUPAQGKL._SR38,50_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/218Cw-BgP4L._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31CoVdns-FL._US40_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/41SSYQtCFwL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51hNwSmU3EL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/51Yu4kVeK%2BL._US40_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41p34A5tq8L._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/4165n9bTYEL._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41cE%2BTjUVEL._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/416O0ikU2%2BL._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41lHkbp7UJL._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41tbAI7-pDL._SS36_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41gBT%2Bx6qOL._SS36_.jpg']</t>
+  </si>
+  <si>
+    <t>['https://images-na.ssl-images-amazon.com/images/I/410GW5coXdL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/41ff346PA4L._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31Cl1F-jqpL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/31aSdT99vDL._SR38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/11GjVg9YB0L._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/21YaKAK6iQL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/11mE47xbnKL._SX38_SY50_CR,0,0,38,50_.jpg', 'https://images-na.ssl-images-amazon.com/images/I/11jvssqZ4sL._SX38_SY50_CR,0,0,38,50_.jpg']</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9281,7 +9576,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -9304,13 +9599,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -9319,11 +9628,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9365,7 +9682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9397,9 +9714,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9431,6 +9766,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9606,14 +9959,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9707,8 +10062,11 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>2257</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -9728,7 +10086,7 @@
         <v>487</v>
       </c>
       <c r="G2">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9802,8 +10160,11 @@
       <c r="AE2" t="s">
         <v>2157</v>
       </c>
+      <c r="AF2" t="s">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -9826,13 +10187,13 @@
         <v>0.25</v>
       </c>
       <c r="H3">
-        <v>-0.025</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="I3">
         <v>53</v>
       </c>
       <c r="J3">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -9897,8 +10258,11 @@
       <c r="AE3" t="s">
         <v>2158</v>
       </c>
+      <c r="AF3" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -9927,7 +10291,7 @@
         <v>84</v>
       </c>
       <c r="J4">
-        <v>0.1538461538461539</v>
+        <v>0.15384615384615391</v>
       </c>
       <c r="K4">
         <v>13</v>
@@ -9992,8 +10356,11 @@
       <c r="AE4" t="s">
         <v>2159</v>
       </c>
+      <c r="AF4" t="s">
+        <v>2260</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -10087,8 +10454,11 @@
       <c r="AE5" t="s">
         <v>2160</v>
       </c>
+      <c r="AF5" t="s">
+        <v>2261</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -10182,8 +10552,11 @@
       <c r="AE6" t="s">
         <v>2161</v>
       </c>
+      <c r="AF6" t="s">
+        <v>2262</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -10203,7 +10576,7 @@
         <v>487</v>
       </c>
       <c r="G7">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -10212,7 +10585,7 @@
         <v>49</v>
       </c>
       <c r="J7">
-        <v>0.2727272727272727</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="K7">
         <v>11</v>
@@ -10277,8 +10650,11 @@
       <c r="AE7" t="s">
         <v>2162</v>
       </c>
+      <c r="AF7" t="s">
+        <v>2263</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -10298,7 +10674,7 @@
         <v>487</v>
       </c>
       <c r="G8">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -10307,7 +10683,7 @@
         <v>30</v>
       </c>
       <c r="J8">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -10372,8 +10748,11 @@
       <c r="AE8" t="s">
         <v>2163</v>
       </c>
+      <c r="AF8" t="s">
+        <v>2264</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -10402,7 +10781,7 @@
         <v>58</v>
       </c>
       <c r="J9">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K9">
         <v>9</v>
@@ -10467,8 +10846,11 @@
       <c r="AE9" t="s">
         <v>2164</v>
       </c>
+      <c r="AF9" t="s">
+        <v>2265</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -10497,7 +10879,7 @@
         <v>46</v>
       </c>
       <c r="J10">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="K10">
         <v>7</v>
@@ -10562,8 +10944,11 @@
       <c r="AE10" t="s">
         <v>2165</v>
       </c>
+      <c r="AF10" t="s">
+        <v>2266</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -10583,7 +10968,7 @@
         <v>488</v>
       </c>
       <c r="G11">
-        <v>0.5294117647058824</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -10592,7 +10977,7 @@
         <v>102</v>
       </c>
       <c r="J11">
-        <v>0.4583333333333333</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="K11">
         <v>24</v>
@@ -10657,8 +11042,11 @@
       <c r="AE11" t="s">
         <v>2166</v>
       </c>
+      <c r="AF11" t="s">
+        <v>2267</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -10687,7 +11075,7 @@
         <v>38</v>
       </c>
       <c r="J12">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -10752,8 +11140,11 @@
       <c r="AE12" t="s">
         <v>2167</v>
       </c>
+      <c r="AF12" t="s">
+        <v>2268</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -10773,7 +11164,7 @@
         <v>489</v>
       </c>
       <c r="G13">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="H13">
         <v>0.1</v>
@@ -10782,7 +11173,7 @@
         <v>184</v>
       </c>
       <c r="J13">
-        <v>0.3658536585365854</v>
+        <v>0.36585365853658541</v>
       </c>
       <c r="K13">
         <v>41</v>
@@ -10847,8 +11238,11 @@
       <c r="AE13" t="s">
         <v>2168</v>
       </c>
+      <c r="AF13" t="s">
+        <v>2269</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -10942,8 +11336,11 @@
       <c r="AE14" t="s">
         <v>2169</v>
       </c>
+      <c r="AF14" t="s">
+        <v>2270</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -10963,7 +11360,7 @@
         <v>487</v>
       </c>
       <c r="G15">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="H15">
         <v>-0.2142857142857143</v>
@@ -10972,7 +11369,7 @@
         <v>46</v>
       </c>
       <c r="J15">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -11037,8 +11434,11 @@
       <c r="AE15" t="s">
         <v>2170</v>
       </c>
+      <c r="AF15" t="s">
+        <v>2271</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -11058,10 +11458,10 @@
         <v>487</v>
       </c>
       <c r="G16">
-        <v>0.2307692307692308</v>
+        <v>0.23076923076923081</v>
       </c>
       <c r="H16">
-        <v>0.1444444444444445</v>
+        <v>0.14444444444444449</v>
       </c>
       <c r="I16">
         <v>81</v>
@@ -11132,8 +11532,11 @@
       <c r="AE16" t="s">
         <v>2171</v>
       </c>
+      <c r="AF16" t="s">
+        <v>2272</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -11162,7 +11565,7 @@
         <v>84</v>
       </c>
       <c r="J17">
-        <v>0.4736842105263158</v>
+        <v>0.47368421052631582</v>
       </c>
       <c r="K17">
         <v>19</v>
@@ -11227,8 +11630,11 @@
       <c r="AE17" t="s">
         <v>2172</v>
       </c>
+      <c r="AF17" t="s">
+        <v>2273</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -11322,8 +11728,11 @@
       <c r="AE18" t="s">
         <v>2173</v>
       </c>
+      <c r="AF18" t="s">
+        <v>2274</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -11352,7 +11761,7 @@
         <v>51</v>
       </c>
       <c r="J19">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -11417,8 +11826,11 @@
       <c r="AE19" t="s">
         <v>2174</v>
       </c>
+      <c r="AF19" t="s">
+        <v>2275</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -11447,7 +11859,7 @@
         <v>45</v>
       </c>
       <c r="J20">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="K20">
         <v>7</v>
@@ -11512,8 +11924,11 @@
       <c r="AE20" t="s">
         <v>2175</v>
       </c>
+      <c r="AF20" t="s">
+        <v>2276</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -11533,7 +11948,7 @@
         <v>487</v>
       </c>
       <c r="G21">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -11542,7 +11957,7 @@
         <v>91</v>
       </c>
       <c r="J21">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="K21">
         <v>22</v>
@@ -11607,8 +12022,11 @@
       <c r="AE21" t="s">
         <v>2176</v>
       </c>
+      <c r="AF21" t="s">
+        <v>2277</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -11637,7 +12055,7 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -11702,8 +12120,11 @@
       <c r="AE22" t="s">
         <v>2177</v>
       </c>
+      <c r="AF22" t="s">
+        <v>2278</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -11797,8 +12218,11 @@
       <c r="AE23" t="s">
         <v>2178</v>
       </c>
+      <c r="AF23" t="s">
+        <v>2279</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -11892,8 +12316,11 @@
       <c r="AE24" t="s">
         <v>2179</v>
       </c>
+      <c r="AF24" t="s">
+        <v>2280</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -11987,8 +12414,11 @@
       <c r="AE25" t="s">
         <v>2180</v>
       </c>
+      <c r="AF25" t="s">
+        <v>2281</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -12082,8 +12512,11 @@
       <c r="AE26" t="s">
         <v>2181</v>
       </c>
+      <c r="AF26" t="s">
+        <v>2282</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -12103,16 +12536,16 @@
         <v>487</v>
       </c>
       <c r="G27">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H27">
-        <v>-0.025</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="I27">
         <v>56</v>
       </c>
       <c r="J27">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="K27">
         <v>13</v>
@@ -12177,8 +12610,11 @@
       <c r="AE27" t="s">
         <v>2182</v>
       </c>
+      <c r="AF27" t="s">
+        <v>2283</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -12201,7 +12637,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H28">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="I28">
         <v>54</v>
@@ -12272,8 +12708,11 @@
       <c r="AE28" t="s">
         <v>2183</v>
       </c>
+      <c r="AF28" t="s">
+        <v>2284</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -12293,7 +12732,7 @@
         <v>487</v>
       </c>
       <c r="G29">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -12367,8 +12806,11 @@
       <c r="AE29" t="s">
         <v>2184</v>
       </c>
+      <c r="AF29" t="s">
+        <v>2285</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -12388,10 +12830,10 @@
         <v>487</v>
       </c>
       <c r="G30">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="H30">
-        <v>-0.025</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="I30">
         <v>55</v>
@@ -12462,8 +12904,11 @@
       <c r="AE30" t="s">
         <v>2185</v>
       </c>
+      <c r="AF30" t="s">
+        <v>2286</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -12483,7 +12928,7 @@
         <v>487</v>
       </c>
       <c r="G31">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -12557,8 +13002,11 @@
       <c r="AE31" t="s">
         <v>2186</v>
       </c>
+      <c r="AF31" t="s">
+        <v>2287</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -12578,7 +13026,7 @@
         <v>488</v>
       </c>
       <c r="G32">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -12587,7 +13035,7 @@
         <v>56</v>
       </c>
       <c r="J32">
-        <v>0.09090909090909091</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K32">
         <v>11</v>
@@ -12652,8 +13100,11 @@
       <c r="AE32" t="s">
         <v>2187</v>
       </c>
+      <c r="AF32" t="s">
+        <v>2288</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -12673,10 +13124,10 @@
         <v>487</v>
       </c>
       <c r="G33">
-        <v>0.2727272727272727</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="H33">
-        <v>-0.09375</v>
+        <v>-9.375E-2</v>
       </c>
       <c r="I33">
         <v>83</v>
@@ -12747,8 +13198,11 @@
       <c r="AE33" t="s">
         <v>2188</v>
       </c>
+      <c r="AF33" t="s">
+        <v>2289</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -12842,8 +13296,11 @@
       <c r="AE34" t="s">
         <v>2189</v>
       </c>
+      <c r="AF34" t="s">
+        <v>2290</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -12863,7 +13320,7 @@
         <v>487</v>
       </c>
       <c r="G35">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -12872,7 +13329,7 @@
         <v>26</v>
       </c>
       <c r="J35">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -12937,8 +13394,11 @@
       <c r="AE35" t="s">
         <v>2190</v>
       </c>
+      <c r="AF35" t="s">
+        <v>2275</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -12958,7 +13418,7 @@
         <v>487</v>
       </c>
       <c r="G36">
-        <v>0.2352941176470588</v>
+        <v>0.23529411764705879</v>
       </c>
       <c r="H36">
         <v>-0.1180555555555555</v>
@@ -13032,8 +13492,11 @@
       <c r="AE36" t="s">
         <v>2191</v>
       </c>
+      <c r="AF36" t="s">
+        <v>2291</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -13062,7 +13525,7 @@
         <v>50</v>
       </c>
       <c r="J37">
-        <v>0.2727272727272727</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="K37">
         <v>11</v>
@@ -13127,8 +13590,11 @@
       <c r="AE37" t="s">
         <v>2192</v>
       </c>
+      <c r="AF37" t="s">
+        <v>2292</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -13222,8 +13688,11 @@
       <c r="AE38" t="s">
         <v>2193</v>
       </c>
+      <c r="AF38" t="s">
+        <v>2293</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -13243,7 +13712,7 @@
         <v>487</v>
       </c>
       <c r="G39">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -13252,7 +13721,7 @@
         <v>82</v>
       </c>
       <c r="J39">
-        <v>0.4615384615384616</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="K39">
         <v>13</v>
@@ -13317,8 +13786,11 @@
       <c r="AE39" t="s">
         <v>2194</v>
       </c>
+      <c r="AF39" t="s">
+        <v>2294</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -13347,7 +13819,7 @@
         <v>38</v>
       </c>
       <c r="J40">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K40">
         <v>9</v>
@@ -13412,8 +13884,11 @@
       <c r="AE40" t="s">
         <v>2195</v>
       </c>
+      <c r="AF40" t="s">
+        <v>2295</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -13442,7 +13917,7 @@
         <v>47</v>
       </c>
       <c r="J41">
-        <v>0.1428571428571428</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="K41">
         <v>7</v>
@@ -13507,8 +13982,11 @@
       <c r="AE41" t="s">
         <v>2196</v>
       </c>
+      <c r="AF41" t="s">
+        <v>2275</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -13528,7 +14006,7 @@
         <v>487</v>
       </c>
       <c r="G42">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -13537,7 +14015,7 @@
         <v>82</v>
       </c>
       <c r="J42">
-        <v>0.3846153846153846</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="K42">
         <v>13</v>
@@ -13602,8 +14080,11 @@
       <c r="AE42" t="s">
         <v>2197</v>
       </c>
+      <c r="AF42" t="s">
+        <v>2296</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -13626,7 +14107,7 @@
         <v>0.4375</v>
       </c>
       <c r="H43">
-        <v>-0.08333333333333333</v>
+        <v>-8.3333333333333329E-2</v>
       </c>
       <c r="I43">
         <v>105</v>
@@ -13697,8 +14178,11 @@
       <c r="AE43" t="s">
         <v>2198</v>
       </c>
+      <c r="AF43" t="s">
+        <v>2297</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -13792,8 +14276,11 @@
       <c r="AE44" t="s">
         <v>2199</v>
       </c>
+      <c r="AF44" t="s">
+        <v>2298</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -13813,7 +14300,7 @@
         <v>487</v>
       </c>
       <c r="G45">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -13887,8 +14374,11 @@
       <c r="AE45" t="s">
         <v>2200</v>
       </c>
+      <c r="AF45" t="s">
+        <v>2285</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -13982,8 +14472,11 @@
       <c r="AE46" t="s">
         <v>2201</v>
       </c>
+      <c r="AF46" t="s">
+        <v>2275</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -14077,8 +14570,11 @@
       <c r="AE47" t="s">
         <v>2202</v>
       </c>
+      <c r="AF47" t="s">
+        <v>2299</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -14098,7 +14594,7 @@
         <v>487</v>
       </c>
       <c r="G48">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -14107,7 +14603,7 @@
         <v>82</v>
       </c>
       <c r="J48">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K48">
         <v>18</v>
@@ -14172,8 +14668,11 @@
       <c r="AE48" t="s">
         <v>2203</v>
       </c>
+      <c r="AF48" t="s">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -14267,8 +14766,11 @@
       <c r="AE49" t="s">
         <v>2204</v>
       </c>
+      <c r="AF49" t="s">
+        <v>2301</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -14362,8 +14864,11 @@
       <c r="AE50" t="s">
         <v>2205</v>
       </c>
+      <c r="AF50" t="s">
+        <v>2302</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -14383,7 +14888,7 @@
         <v>487</v>
       </c>
       <c r="G51">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H51">
         <v>0.16</v>
@@ -14457,8 +14962,11 @@
       <c r="AE51" t="s">
         <v>2206</v>
       </c>
+      <c r="AF51" t="s">
+        <v>2275</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -14478,7 +14986,7 @@
         <v>487</v>
       </c>
       <c r="G52">
-        <v>0.2307692307692308</v>
+        <v>0.23076923076923081</v>
       </c>
       <c r="H52">
         <v>-0.1875</v>
@@ -14487,7 +14995,7 @@
         <v>83</v>
       </c>
       <c r="J52">
-        <v>0.3846153846153846</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="K52">
         <v>13</v>
@@ -14552,8 +15060,11 @@
       <c r="AE52" t="s">
         <v>2207</v>
       </c>
+      <c r="AF52" t="s">
+        <v>2303</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -14573,7 +15084,7 @@
         <v>487</v>
       </c>
       <c r="G53">
-        <v>0.2352941176470588</v>
+        <v>0.23529411764705879</v>
       </c>
       <c r="H53">
         <v>-0.1180555555555555</v>
@@ -14647,8 +15158,11 @@
       <c r="AE53" t="s">
         <v>2208</v>
       </c>
+      <c r="AF53" t="s">
+        <v>2291</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -14742,8 +15256,11 @@
       <c r="AE54" t="s">
         <v>2209</v>
       </c>
+      <c r="AF54" t="s">
+        <v>2304</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -14763,7 +15280,7 @@
         <v>487</v>
       </c>
       <c r="G55">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -14772,7 +15289,7 @@
         <v>84</v>
       </c>
       <c r="J55">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="K55">
         <v>15</v>
@@ -14837,8 +15354,11 @@
       <c r="AE55" t="s">
         <v>2210</v>
       </c>
+      <c r="AF55" t="s">
+        <v>2305</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -14932,8 +15452,11 @@
       <c r="AE56" t="s">
         <v>2211</v>
       </c>
+      <c r="AF56" t="s">
+        <v>2306</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -14953,7 +15476,7 @@
         <v>487</v>
       </c>
       <c r="G57">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -14962,7 +15485,7 @@
         <v>82</v>
       </c>
       <c r="J57">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K57">
         <v>18</v>
@@ -15027,8 +15550,11 @@
       <c r="AE57" t="s">
         <v>2212</v>
       </c>
+      <c r="AF57" t="s">
+        <v>2307</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -15122,8 +15648,11 @@
       <c r="AE58" t="s">
         <v>2213</v>
       </c>
+      <c r="AF58" t="s">
+        <v>2308</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -15217,8 +15746,11 @@
       <c r="AE59" t="s">
         <v>2214</v>
       </c>
+      <c r="AF59" t="s">
+        <v>2309</v>
+      </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -15247,7 +15779,7 @@
         <v>36</v>
       </c>
       <c r="J60">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K60">
         <v>6</v>
@@ -15312,8 +15844,11 @@
       <c r="AE60" t="s">
         <v>2215</v>
       </c>
+      <c r="AF60" t="s">
+        <v>2310</v>
+      </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -15333,16 +15868,16 @@
         <v>487</v>
       </c>
       <c r="G61">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H61">
-        <v>0.04545454545454545</v>
+        <v>4.5454545454545449E-2</v>
       </c>
       <c r="I61">
         <v>90</v>
       </c>
       <c r="J61">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K61">
         <v>18</v>
@@ -15407,8 +15942,11 @@
       <c r="AE61" t="s">
         <v>2216</v>
       </c>
+      <c r="AF61" t="s">
+        <v>2311</v>
+      </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -15428,7 +15966,7 @@
         <v>487</v>
       </c>
       <c r="G62">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -15502,8 +16040,11 @@
       <c r="AE62" t="s">
         <v>2217</v>
       </c>
+      <c r="AF62" t="s">
+        <v>2275</v>
+      </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -15597,8 +16138,11 @@
       <c r="AE63" t="s">
         <v>2218</v>
       </c>
+      <c r="AF63" t="s">
+        <v>2312</v>
+      </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -15618,7 +16162,7 @@
         <v>487</v>
       </c>
       <c r="G64">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -15692,8 +16236,11 @@
       <c r="AE64" t="s">
         <v>2219</v>
       </c>
+      <c r="AF64" t="s">
+        <v>2313</v>
+      </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -15713,7 +16260,7 @@
         <v>487</v>
       </c>
       <c r="G65">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="H65">
         <v>-0.05</v>
@@ -15787,8 +16334,11 @@
       <c r="AE65" t="s">
         <v>2220</v>
       </c>
+      <c r="AF65" t="s">
+        <v>2314</v>
+      </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -15808,7 +16358,7 @@
         <v>487</v>
       </c>
       <c r="G66">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="H66">
         <v>0.15</v>
@@ -15817,7 +16367,7 @@
         <v>84</v>
       </c>
       <c r="J66">
-        <v>0.3846153846153846</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="K66">
         <v>13</v>
@@ -15882,8 +16432,11 @@
       <c r="AE66" t="s">
         <v>2221</v>
       </c>
+      <c r="AF66" t="s">
+        <v>2315</v>
+      </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -15977,8 +16530,11 @@
       <c r="AE67" t="s">
         <v>2222</v>
       </c>
+      <c r="AF67" t="s">
+        <v>2316</v>
+      </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -15998,16 +16554,16 @@
         <v>487</v>
       </c>
       <c r="G68">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H68">
-        <v>-3.700743415417188E-17</v>
+        <v>-3.7007434154171883E-17</v>
       </c>
       <c r="I68">
         <v>94</v>
       </c>
       <c r="J68">
-        <v>0.1578947368421053</v>
+        <v>0.15789473684210531</v>
       </c>
       <c r="K68">
         <v>19</v>
@@ -16072,8 +16628,11 @@
       <c r="AE68" t="s">
         <v>2223</v>
       </c>
+      <c r="AF68" t="s">
+        <v>2317</v>
+      </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -16093,7 +16652,7 @@
         <v>487</v>
       </c>
       <c r="G69">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="H69">
         <v>0.2</v>
@@ -16102,7 +16661,7 @@
         <v>85</v>
       </c>
       <c r="J69">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K69">
         <v>12</v>
@@ -16167,8 +16726,11 @@
       <c r="AE69" t="s">
         <v>2224</v>
       </c>
+      <c r="AF69" t="s">
+        <v>2318</v>
+      </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -16188,7 +16750,7 @@
         <v>487</v>
       </c>
       <c r="G70">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -16262,8 +16824,11 @@
       <c r="AE70" t="s">
         <v>2225</v>
       </c>
+      <c r="AF70" t="s">
+        <v>2319</v>
+      </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -16292,7 +16857,7 @@
         <v>92</v>
       </c>
       <c r="J71">
-        <v>0.2777777777777778</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="K71">
         <v>18</v>
@@ -16357,8 +16922,11 @@
       <c r="AE71" t="s">
         <v>2226</v>
       </c>
+      <c r="AF71" t="s">
+        <v>2320</v>
+      </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -16387,7 +16955,7 @@
         <v>91</v>
       </c>
       <c r="J72">
-        <v>0.3636363636363636</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="K72">
         <v>22</v>
@@ -16452,8 +17020,11 @@
       <c r="AE72" t="s">
         <v>2227</v>
       </c>
+      <c r="AF72" t="s">
+        <v>2321</v>
+      </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -16482,7 +17053,7 @@
         <v>31</v>
       </c>
       <c r="J73">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="K73">
         <v>7</v>
@@ -16547,8 +17118,11 @@
       <c r="AE73" t="s">
         <v>2228</v>
       </c>
+      <c r="AF73" t="s">
+        <v>2322</v>
+      </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -16577,7 +17151,7 @@
         <v>59</v>
       </c>
       <c r="J74">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K74">
         <v>12</v>
@@ -16642,8 +17216,11 @@
       <c r="AE74" t="s">
         <v>2229</v>
       </c>
+      <c r="AF74" t="s">
+        <v>2323</v>
+      </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -16737,8 +17314,11 @@
       <c r="AE75" t="s">
         <v>2230</v>
       </c>
+      <c r="AF75" t="s">
+        <v>2324</v>
+      </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -16832,8 +17412,11 @@
       <c r="AE76" t="s">
         <v>2231</v>
       </c>
+      <c r="AF76" t="s">
+        <v>2325</v>
+      </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -16862,7 +17445,7 @@
         <v>56</v>
       </c>
       <c r="J77">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="K77">
         <v>11</v>
@@ -16927,8 +17510,11 @@
       <c r="AE77" t="s">
         <v>2232</v>
       </c>
+      <c r="AF77" t="s">
+        <v>2326</v>
+      </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -16957,7 +17543,7 @@
         <v>27</v>
       </c>
       <c r="J78">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -17022,8 +17608,11 @@
       <c r="AE78" t="s">
         <v>2233</v>
       </c>
+      <c r="AF78" t="s">
+        <v>2327</v>
+      </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -17043,7 +17632,7 @@
         <v>487</v>
       </c>
       <c r="G79">
-        <v>0.2352941176470588</v>
+        <v>0.23529411764705879</v>
       </c>
       <c r="H79">
         <v>-0.1180555555555555</v>
@@ -17117,8 +17706,11 @@
       <c r="AE79" t="s">
         <v>2234</v>
       </c>
+      <c r="AF79" t="s">
+        <v>2291</v>
+      </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -17138,7 +17730,7 @@
         <v>487</v>
       </c>
       <c r="G80">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="H80">
         <v>-0.2</v>
@@ -17147,7 +17739,7 @@
         <v>50</v>
       </c>
       <c r="J80">
-        <v>0.2727272727272727</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="K80">
         <v>11</v>
@@ -17212,8 +17804,11 @@
       <c r="AE80" t="s">
         <v>2235</v>
       </c>
+      <c r="AF80" t="s">
+        <v>2328</v>
+      </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -17233,10 +17828,10 @@
         <v>487</v>
       </c>
       <c r="G81">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="H81">
-        <v>-0.1555555555555556</v>
+        <v>-0.15555555555555561</v>
       </c>
       <c r="I81">
         <v>52</v>
@@ -17307,8 +17902,11 @@
       <c r="AE81" t="s">
         <v>2236</v>
       </c>
+      <c r="AF81" t="s">
+        <v>2329</v>
+      </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>105</v>
       </c>
@@ -17328,7 +17926,7 @@
         <v>487</v>
       </c>
       <c r="G82">
-        <v>0.4545454545454545</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -17337,7 +17935,7 @@
         <v>85</v>
       </c>
       <c r="J82">
-        <v>0.2941176470588235</v>
+        <v>0.29411764705882348</v>
       </c>
       <c r="K82">
         <v>17</v>
@@ -17402,8 +18000,11 @@
       <c r="AE82" t="s">
         <v>2237</v>
       </c>
+      <c r="AF82" t="s">
+        <v>2330</v>
+      </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -17432,7 +18033,7 @@
         <v>53</v>
       </c>
       <c r="J83">
-        <v>0.1428571428571428</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="K83">
         <v>7</v>
@@ -17497,8 +18098,11 @@
       <c r="AE83" t="s">
         <v>2238</v>
       </c>
+      <c r="AF83" t="s">
+        <v>2331</v>
+      </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -17527,7 +18131,7 @@
         <v>46</v>
       </c>
       <c r="J84">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K84">
         <v>12</v>
@@ -17592,8 +18196,11 @@
       <c r="AE84" t="s">
         <v>2239</v>
       </c>
+      <c r="AF84" t="s">
+        <v>2332</v>
+      </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -17613,7 +18220,7 @@
         <v>490</v>
       </c>
       <c r="G85">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -17622,7 +18229,7 @@
         <v>101</v>
       </c>
       <c r="J85">
-        <v>0.2941176470588235</v>
+        <v>0.29411764705882348</v>
       </c>
       <c r="K85">
         <v>17</v>
@@ -17687,8 +18294,11 @@
       <c r="AE85" t="s">
         <v>2240</v>
       </c>
+      <c r="AF85" t="s">
+        <v>2333</v>
+      </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -17711,13 +18321,13 @@
         <v>0.25</v>
       </c>
       <c r="H86">
-        <v>-0.1555555555555556</v>
+        <v>-0.15555555555555561</v>
       </c>
       <c r="I86">
         <v>55</v>
       </c>
       <c r="J86">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="K86">
         <v>9</v>
@@ -17782,8 +18392,11 @@
       <c r="AE86" t="s">
         <v>2241</v>
       </c>
+      <c r="AF86" t="s">
+        <v>2334</v>
+      </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -17812,7 +18425,7 @@
         <v>27</v>
       </c>
       <c r="J87">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K87">
         <v>3</v>
@@ -17877,8 +18490,11 @@
       <c r="AE87" t="s">
         <v>2242</v>
       </c>
+      <c r="AF87" t="s">
+        <v>2335</v>
+      </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>110</v>
       </c>
@@ -17907,7 +18523,7 @@
         <v>82</v>
       </c>
       <c r="J88">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="K88">
         <v>12</v>
@@ -17972,8 +18588,11 @@
       <c r="AE88" t="s">
         <v>2243</v>
       </c>
+      <c r="AF88" t="s">
+        <v>2336</v>
+      </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -17993,7 +18612,7 @@
         <v>487</v>
       </c>
       <c r="G89">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -18067,8 +18686,11 @@
       <c r="AE89" t="s">
         <v>2244</v>
       </c>
+      <c r="AF89" t="s">
+        <v>2337</v>
+      </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>112</v>
       </c>
@@ -18097,7 +18719,7 @@
         <v>83</v>
       </c>
       <c r="J90">
-        <v>0.2666666666666667</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="K90">
         <v>15</v>
@@ -18162,8 +18784,11 @@
       <c r="AE90" t="s">
         <v>2245</v>
       </c>
+      <c r="AF90" t="s">
+        <v>2338</v>
+      </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>113</v>
       </c>
@@ -18192,7 +18817,7 @@
         <v>105</v>
       </c>
       <c r="J91">
-        <v>0.4736842105263158</v>
+        <v>0.47368421052631582</v>
       </c>
       <c r="K91">
         <v>19</v>
@@ -18257,8 +18882,11 @@
       <c r="AE91" t="s">
         <v>2246</v>
       </c>
+      <c r="AF91" t="s">
+        <v>2339</v>
+      </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -18278,7 +18906,7 @@
         <v>487</v>
       </c>
       <c r="G92">
-        <v>0.3076923076923077</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -18287,7 +18915,7 @@
         <v>82</v>
       </c>
       <c r="J92">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K92">
         <v>18</v>
@@ -18352,8 +18980,11 @@
       <c r="AE92" t="s">
         <v>2247</v>
       </c>
+      <c r="AF92" t="s">
+        <v>2340</v>
+      </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -18373,16 +19004,16 @@
         <v>487</v>
       </c>
       <c r="G93">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H93">
-        <v>-0.07916666666666666</v>
+        <v>-7.9166666666666663E-2</v>
       </c>
       <c r="I93">
         <v>89</v>
       </c>
       <c r="J93">
-        <v>0.3157894736842105</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="K93">
         <v>19</v>
@@ -18447,8 +19078,11 @@
       <c r="AE93" t="s">
         <v>2248</v>
       </c>
+      <c r="AF93" t="s">
+        <v>2341</v>
+      </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>115</v>
       </c>
@@ -18542,8 +19176,11 @@
       <c r="AE94" t="s">
         <v>2249</v>
       </c>
+      <c r="AF94" t="s">
+        <v>2342</v>
+      </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -18637,8 +19274,11 @@
       <c r="AE95" t="s">
         <v>2250</v>
       </c>
+      <c r="AF95" t="s">
+        <v>2343</v>
+      </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -18658,7 +19298,7 @@
         <v>487</v>
       </c>
       <c r="G96">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -18667,7 +19307,7 @@
         <v>36</v>
       </c>
       <c r="J96">
-        <v>0.4444444444444444</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="K96">
         <v>9</v>
@@ -18732,8 +19372,11 @@
       <c r="AE96" t="s">
         <v>2251</v>
       </c>
+      <c r="AF96" t="s">
+        <v>2344</v>
+      </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -18762,7 +19405,7 @@
         <v>20</v>
       </c>
       <c r="J97">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K97">
         <v>3</v>
@@ -18827,8 +19470,11 @@
       <c r="AE97" t="s">
         <v>2252</v>
       </c>
+      <c r="AF97" t="s">
+        <v>2345</v>
+      </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>118</v>
       </c>
@@ -18848,7 +19494,7 @@
         <v>487</v>
       </c>
       <c r="G98">
-        <v>0.2307692307692308</v>
+        <v>0.23076923076923081</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -18857,7 +19503,7 @@
         <v>84</v>
       </c>
       <c r="J98">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="K98">
         <v>14</v>
@@ -18922,8 +19568,11 @@
       <c r="AE98" t="s">
         <v>2253</v>
       </c>
+      <c r="AF98" t="s">
+        <v>2346</v>
+      </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -18943,7 +19592,7 @@
         <v>487</v>
       </c>
       <c r="G99">
-        <v>0.3181818181818182</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -18952,7 +19601,7 @@
         <v>133</v>
       </c>
       <c r="J99">
-        <v>0.4074074074074074</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="K99">
         <v>27</v>
@@ -19017,8 +19666,11 @@
       <c r="AE99" t="s">
         <v>2254</v>
       </c>
+      <c r="AF99" t="s">
+        <v>2347</v>
+      </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>120</v>
       </c>
@@ -19038,7 +19690,7 @@
         <v>487</v>
       </c>
       <c r="G100">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -19047,7 +19699,7 @@
         <v>104</v>
       </c>
       <c r="J100">
-        <v>0.09523809523809523</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="K100">
         <v>21</v>
@@ -19112,8 +19764,11 @@
       <c r="AE100" t="s">
         <v>2255</v>
       </c>
+      <c r="AF100" t="s">
+        <v>2275</v>
+      </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>121</v>
       </c>
@@ -19133,7 +19788,7 @@
         <v>487</v>
       </c>
       <c r="G101">
-        <v>0.2222222222222222</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -19142,7 +19797,7 @@
         <v>120</v>
       </c>
       <c r="J101">
-        <v>0.4285714285714285</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="K101">
         <v>21</v>
@@ -19206,9 +19861,13 @@
       </c>
       <c r="AE101" t="s">
         <v>2256</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>2348</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>